--- a/AI ツール/AIツール管理簿.xlsx
+++ b/AI ツール/AIツール管理簿.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atsu0\OneDrive\デスクトップ\AIツール\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\AI ツール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7528497F-732D-4231-A765-11952EDFC717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80113C7-8BB4-47AB-BC16-F31B5897C718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1904,8 +1904,8 @@
   </sheetPr>
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2775,9 +2775,9 @@
   <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G31" sqref="G31"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4852,13 +4852,13 @@
       </c>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="17">
         <v>44801</v>
       </c>
-      <c r="C35" s="10" t="str">
+      <c r="C35" s="17" t="str">
         <f>IFERROR(VLOOKUP(A35,AI管理簿[[#All],[管理番号]:[契約日]],4,FALSE),"")</f>
         <v>ハナブサ　タカヒロ</v>
       </c>

--- a/AI ツール/AIツール管理簿.xlsx
+++ b/AI ツール/AIツール管理簿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\AI ツール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80113C7-8BB4-47AB-BC16-F31B5897C718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA8B33B-E57A-4514-A0D9-ACF71ACFA377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2777,7 +2777,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G31" sqref="G31"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/AI ツール/AIツール管理簿.xlsx
+++ b/AI ツール/AIツール管理簿.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\AI ツール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA8B33B-E57A-4514-A0D9-ACF71ACFA377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03949BF-F757-4965-BE8F-AFCACD415C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="管理簿" sheetId="1" r:id="rId1"/>
@@ -1908,17 +1908,17 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="10.08203125" customWidth="1"/>
-    <col min="2" max="2" width="13.08203125" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="27.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.08203125" customWidth="1"/>
-    <col min="6" max="6" width="11.08203125" customWidth="1"/>
-    <col min="7" max="7" width="33.83203125" customWidth="1"/>
+    <col min="4" max="4" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="33.875" customWidth="1"/>
     <col min="8" max="8" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.58203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2027,7 +2027,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:10" ht="36">
+    <row r="5" spans="1:10" ht="37.5">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -2155,7 +2155,7 @@
       </c>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:10" ht="36">
+    <row r="10" spans="1:10" ht="37.5">
       <c r="A10" s="6" t="s">
         <v>51</v>
       </c>
@@ -2287,7 +2287,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:10" ht="36">
+    <row r="15" spans="1:10" ht="37.5">
       <c r="A15" s="6" t="s">
         <v>63</v>
       </c>
@@ -2369,7 +2369,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:10" ht="36">
+    <row r="18" spans="1:10" ht="37.5">
       <c r="A18" s="6" t="s">
         <v>70</v>
       </c>
@@ -2775,29 +2775,29 @@
   <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G31" sqref="G31"/>
-      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="27.08203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.08203125" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" customWidth="1"/>
-    <col min="6" max="6" width="9.58203125" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.125" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="9.625" customWidth="1"/>
     <col min="7" max="7" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.08203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.08203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.08203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.08203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.08203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2982,7 +2982,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="26" customFormat="1" ht="36">
+    <row r="4" spans="1:19" s="26" customFormat="1" ht="37.5">
       <c r="A4" s="16" t="s">
         <v>132</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="36">
+    <row r="9" spans="1:19" ht="37.5">
       <c r="A9" s="16" t="s">
         <v>135</v>
       </c>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="Q13" s="9"/>
     </row>
-    <row r="14" spans="1:19" ht="36">
+    <row r="14" spans="1:19" ht="37.5">
       <c r="A14" s="16" t="s">
         <v>144</v>
       </c>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="Q14" s="9"/>
     </row>
-    <row r="15" spans="1:19" ht="36">
+    <row r="15" spans="1:19" ht="37.5">
       <c r="A15" s="16" t="s">
         <v>173</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="85.5" hidden="1">
+    <row r="23" spans="1:19" ht="87.75" hidden="1">
       <c r="A23" s="16" t="s">
         <v>21</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="36">
+    <row r="27" spans="1:19" ht="37.5">
       <c r="A27" s="16" t="s">
         <v>188</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="36">
+    <row r="28" spans="1:19" ht="37.5">
       <c r="A28" s="5" t="s">
         <v>29</v>
       </c>
@@ -4485,7 +4485,7 @@
       </c>
       <c r="Q28" s="9"/>
     </row>
-    <row r="29" spans="1:19" ht="36">
+    <row r="29" spans="1:19" ht="37.5">
       <c r="A29" s="5" t="s">
         <v>182</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="54">
+    <row r="30" spans="1:19" ht="56.25">
       <c r="A30" s="16" t="s">
         <v>184</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:19" s="26" customFormat="1" ht="54">
+    <row r="32" spans="1:19" s="26" customFormat="1" ht="56.25">
       <c r="A32" s="16" t="s">
         <v>180</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="36">
+    <row r="38" spans="1:17" ht="37.5">
       <c r="A38" s="16" t="s">
         <v>168</v>
       </c>
@@ -5122,21 +5122,21 @@
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="15.08203125" customWidth="1"/>
+    <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.25" customWidth="1"/>
     <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.25" customWidth="1"/>
-    <col min="11" max="11" width="14.08203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.08203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.08203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.08203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.08203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.08203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -6662,31 +6662,31 @@
       <selection activeCell="C2" sqref="C2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.08203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.08203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.08203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.08203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.08203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.08203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.08203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.08203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.08203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.08203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.08203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">

--- a/AI ツール/AIツール管理簿.xlsx
+++ b/AI ツール/AIツール管理簿.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\AI ツール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03949BF-F757-4965-BE8F-AFCACD415C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B34907C-A7B0-4D6A-BA7C-79BF2F55AA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2777,7 +2777,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G31" sqref="G31"/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
